--- a/SteamGameFinder/games_to_find1.xlsx
+++ b/SteamGameFinder/games_to_find1.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1190B7-46C0-43AD-A5AD-C3A461859A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11160" windowHeight="9168"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="28800" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,9 +28,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>lau.tender@gmail.com</t>
-  </si>
-  <si>
     <t>Miruna Vasiliu</t>
   </si>
   <si>
@@ -55,12 +53,15 @@
   </si>
   <si>
     <t>Highest Price</t>
+  </si>
+  <si>
+    <t>a_diana_gherghescu@yahoo.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -375,28 +376,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -404,44 +405,44 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SteamGameFinder/games_to_find1.xlsx
+++ b/SteamGameFinder/games_to_find1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1190B7-46C0-43AD-A5AD-C3A461859A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863B22F5-3283-45B8-A389-B1A82EB5DB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="3030" windowWidth="28800" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3375" yWindow="3375" windowWidth="28800" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -56,6 +56,15 @@
   </si>
   <si>
     <t>a_diana_gherghescu@yahoo.com</t>
+  </si>
+  <si>
+    <t>David Bejenariu</t>
+  </si>
+  <si>
+    <t>david.bejenariu@gmail.com</t>
+  </si>
+  <si>
+    <t>Black</t>
   </si>
 </sst>
 </file>
@@ -384,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,10 +448,25 @@
         <v>10</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{56277BB1-1D91-4347-A294-47C2867BCDB3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SteamGameFinder/games_to_find1.xlsx
+++ b/SteamGameFinder/games_to_find1.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863B22F5-3283-45B8-A389-B1A82EB5DB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="3375" windowWidth="28800" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3372" yWindow="3372" windowWidth="23256" windowHeight="11508"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -40,37 +39,52 @@
     <t>Sort by</t>
   </si>
   <si>
+    <t>Andreea Gherghescu</t>
+  </si>
+  <si>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t>Vampire</t>
+  </si>
+  <si>
+    <t>a_diana_gherghescu@yahoo.com</t>
+  </si>
+  <si>
+    <t>David Bejenariu</t>
+  </si>
+  <si>
+    <t>david.bejenariu@gmail.com</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Compatibility</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>macOS</t>
+  </si>
+  <si>
+    <t>SteamOS + Linux</t>
+  </si>
+  <si>
     <t>Relevance</t>
   </si>
   <si>
-    <t>Andreea Gherghescu</t>
-  </si>
-  <si>
-    <t>Cat</t>
-  </si>
-  <si>
-    <t>Vampire</t>
-  </si>
-  <si>
     <t>Highest Price</t>
   </si>
   <si>
-    <t>a_diana_gherghescu@yahoo.com</t>
-  </si>
-  <si>
-    <t>David Bejenariu</t>
-  </si>
-  <si>
-    <t>david.bejenariu@gmail.com</t>
-  </si>
-  <si>
-    <t>Black</t>
+    <t>Lowest Price</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -385,28 +399,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,8 +435,11 @@
       <c r="D1" t="s">
         <v>5</v>
       </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -428,45 +447,54 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{56277BB1-1D91-4347-A294-47C2867BCDB3}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SteamGameFinder/games_to_find1.xlsx
+++ b/SteamGameFinder/games_to_find1.xlsx
@@ -42,9 +42,6 @@
     <t>Andreea Gherghescu</t>
   </si>
   <si>
-    <t>Cat</t>
-  </si>
-  <si>
     <t>Vampire</t>
   </si>
   <si>
@@ -79,6 +76,9 @@
   </si>
   <si>
     <t>Lowest Price</t>
+  </si>
+  <si>
+    <t>Zombies</t>
   </si>
 </sst>
 </file>
@@ -399,7 +399,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -410,7 +410,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,7 +436,7 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -447,13 +447,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -461,33 +461,33 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
